--- a/Project169/TestData/InputData.xlsx
+++ b/Project169/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -540,9 +540,6 @@
     <t>NewPwd5</t>
   </si>
   <si>
-    <t>NewPwd6</t>
-  </si>
-  <si>
     <t>NEwuser7</t>
   </si>
   <si>
@@ -571,6 +568,24 @@
   </si>
   <si>
     <t>Application URL</t>
+  </si>
+  <si>
+    <t>NEwuser9</t>
+  </si>
+  <si>
+    <t>NewPwd9</t>
+  </si>
+  <si>
+    <t>NEwuser10</t>
+  </si>
+  <si>
+    <t>NewPwd10</t>
+  </si>
+  <si>
+    <t>NEwuser11</t>
+  </si>
+  <si>
+    <t>NewPwd11</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1026,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1026,7 +1041,7 @@
         <v>10000.120000000001</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1418,7 +1433,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1728,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1747,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1797,7 +1812,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>17</v>
@@ -1914,7 +1929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>133</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
         <v>136</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
         <v>137</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="10" t="s">
         <v>141</v>
       </c>
@@ -2031,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2087,24 +2102,45 @@
       <c r="A6" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
